--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DropboxEphec\ProjetWeb\Documents\UsersStories\Propre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web2.0\Documents\2-UsersStories\Propre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5863526-459E-4965-B4D2-20B6D96B2ACD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E3BBE-E761-4EF8-AFF6-57019D2F5CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
   <si>
     <t>Préparation</t>
   </si>
@@ -203,17 +203,56 @@
     <t>Réunion</t>
   </si>
   <si>
-    <t>Choix technologiques</t>
-  </si>
-  <si>
-    <t>2h00</t>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Choix technologiques back end</t>
+  </si>
+  <si>
+    <t>Choix technologiques front end</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>connexion DB</t>
+  </si>
+  <si>
+    <t>1h30</t>
+  </si>
+  <si>
+    <t>1h00</t>
+  </si>
+  <si>
+    <t>redirection</t>
+  </si>
+  <si>
+    <t>Affichage eleve dans DB</t>
+  </si>
+  <si>
+    <t>requete</t>
+  </si>
+  <si>
+    <t>HTML général</t>
+  </si>
+  <si>
+    <t>Avec style</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +263,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -291,6 +336,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,16 +652,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5B8967-943E-45FD-AD50-36B24B8571A1}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -692,9 +739,15 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -710,7 +763,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -724,9 +779,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -740,7 +801,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
@@ -759,7 +822,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -768,137 +831,121 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>100</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>100</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>100</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>100</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>100</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -908,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -930,13 +977,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -945,32 +992,42 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="1">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -980,19 +1037,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1002,19 +1059,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1024,18 +1081,20 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1043,81 +1102,73 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="C25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1125,11 +1176,21 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1137,11 +1198,21 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="1">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1149,10 +1220,18 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1161,27 +1240,41 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="A30" s="1">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1189,10 +1282,18 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1201,10 +1302,18 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1225,30 +1334,22 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1257,22 +1358,24 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1319,22 +1422,30 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1342,6 +1453,92 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web2.0\Documents\2-UsersStories\Propre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E3BBE-E761-4EF8-AFF6-57019D2F5CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E14F4AE-A93F-476F-AB81-9E938EBDEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Préparation</t>
   </si>
@@ -227,12 +227,6 @@
     <t>connexion DB</t>
   </si>
   <si>
-    <t>1h30</t>
-  </si>
-  <si>
-    <t>1h00</t>
-  </si>
-  <si>
     <t>redirection</t>
   </si>
   <si>
@@ -246,6 +240,21 @@
   </si>
   <si>
     <t>Avec style</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>2h30</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>4h</t>
   </si>
 </sst>
 </file>
@@ -274,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,12 +299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,17 +330,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5B8967-943E-45FD-AD50-36B24B8571A1}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,14 +740,14 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -760,10 +762,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -778,14 +780,14 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -800,12 +802,12 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -818,11 +820,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -836,12 +838,12 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -854,164 +856,146 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>100</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>100</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>100</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>100</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>100</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>100</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>100</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>100</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1021,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1043,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1065,13 +1049,13 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1087,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1102,137 +1086,139 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="A23" s="1">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>80</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1241,18 +1227,20 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1261,13 +1249,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>25</v>
@@ -1283,13 +1271,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>26</v>
@@ -1303,13 +1291,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>45</v>
@@ -1322,11 +1310,21 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1334,10 +1332,18 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1346,10 +1352,18 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1358,24 +1372,20 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1398,20 +1408,24 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="1">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1422,30 +1436,22 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1456,9 +1462,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1468,22 +1472,30 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="1">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1494,7 +1506,9 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1539,6 +1553,42 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web2.0\Documents\2-UsersStories\Propre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ephec-my.sharepoint.com/personal/he201742_students_ephec_be/Documents/0-COURS/BAC2/Q2/Dev_Info_Avance-Web/2-Projet/0-GitProjet_Gr29/Documents/2-UsersStories/Propre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E14F4AE-A93F-476F-AB81-9E938EBDEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{0E14F4AE-A93F-476F-AB81-9E938EBDEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B112C35D-8E08-824C-A77D-0EEE37BE6E2C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
+    <workbookView xWindow="28800" yWindow="440" windowWidth="33600" windowHeight="20560" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>Préparation</t>
   </si>
@@ -221,9 +221,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>connexion DB</t>
   </si>
   <si>
@@ -251,10 +248,64 @@
     <t>API</t>
   </si>
   <si>
-    <t>8h</t>
-  </si>
-  <si>
     <t>4h</t>
+  </si>
+  <si>
+    <t>4h30</t>
+  </si>
+  <si>
+    <t>1h00</t>
+  </si>
+  <si>
+    <t>7h00</t>
+  </si>
+  <si>
+    <t>9h00</t>
+  </si>
+  <si>
+    <t>5h00</t>
+  </si>
+  <si>
+    <t>Longue recherche pour la méthode POST</t>
+  </si>
+  <si>
+    <t>2h00</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>Tests Unitaires</t>
+  </si>
+  <si>
+    <t>GET init</t>
+  </si>
+  <si>
+    <t>GET login</t>
+  </si>
+  <si>
+    <t>GET eleves</t>
+  </si>
+  <si>
+    <t>GET garderie</t>
+  </si>
+  <si>
+    <t>GET elevesId</t>
+  </si>
+  <si>
+    <t>GET elevesName</t>
+  </si>
+  <si>
+    <t>GET parentsId</t>
+  </si>
+  <si>
+    <t>POST eleves</t>
+  </si>
+  <si>
+    <t>POST parents</t>
+  </si>
+  <si>
+    <t>POST garderie</t>
   </si>
 </sst>
 </file>
@@ -283,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +350,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -340,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,22 +712,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5B8967-943E-45FD-AD50-36B24B8571A1}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
@@ -695,7 +754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -707,7 +766,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -729,7 +788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -751,7 +810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -763,13 +822,15 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -782,16 +843,16 @@
       <c r="F6" s="1"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>51</v>
@@ -809,7 +870,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>53</v>
@@ -821,13 +882,15 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>55</v>
@@ -845,7 +908,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>55</v>
@@ -863,13 +926,13 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -881,7 +944,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -893,10 +956,10 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -904,14 +967,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="J13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -923,7 +988,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>100</v>
       </c>
@@ -931,7 +996,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -939,11 +1004,11 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>100</v>
       </c>
@@ -951,7 +1016,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -959,11 +1024,11 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>100</v>
       </c>
@@ -971,21 +1036,19 @@
         <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
         <v>58</v>
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -997,7 +1060,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>100</v>
       </c>
@@ -1019,7 +1082,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>100</v>
       </c>
@@ -1041,7 +1104,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>100</v>
       </c>
@@ -1063,7 +1126,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>100</v>
       </c>
@@ -1085,7 +1148,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>100</v>
       </c>
@@ -1103,11 +1166,13 @@
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>100</v>
       </c>
@@ -1129,7 +1194,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>100</v>
       </c>
@@ -1137,109 +1202,113 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>80</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1247,21 +1316,21 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1269,7 +1338,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>50</v>
       </c>
@@ -1280,16 +1349,20 @@
         <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>50</v>
       </c>
@@ -1300,38 +1373,40 @@
         <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -1342,16 +1417,18 @@
         <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>5</v>
       </c>
@@ -1362,7 +1439,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1371,11 +1448,19 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1383,7 +1468,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1395,7 +1480,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1407,7 +1492,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1419,14 +1504,14 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>20</v>
-      </c>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1435,10 +1520,12 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1447,10 +1534,12 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1459,10 +1548,12 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1471,31 +1562,27 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>5</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1503,11 +1590,11 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1517,10 +1604,12 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1529,10 +1618,12 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1541,10 +1632,12 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1553,21 +1646,25 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>95</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1577,17 +1674,187 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>20</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_9d4\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ephec-my.sharepoint.com/personal/he201742_students_ephec_be/Documents/0-COURS/BAC2/Q2/Dev_Info_Avance-Web/2-Projet/0-GitProjet_Gr29/Documents/2-UsersStories/Propre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{0E14F4AE-A93F-476F-AB81-9E938EBDEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{307A6634-0EE1-4659-9C53-F215E37B85EF}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="13_ncr:1_{0E14F4AE-A93F-476F-AB81-9E938EBDEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7AB442C2-D8B9-F244-BD09-9A8BA64EF942}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="435" windowWidth="33600" windowHeight="20565" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
+    <workbookView xWindow="28800" yWindow="440" windowWidth="33600" windowHeight="20560" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -484,7 +484,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -690,7 +690,7 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1033,27 +1033,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5B8967-943E-45FD-AD50-36B24B8571A1}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="86.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="86.6640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="44" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="14" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="38.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>138</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1101,7 +1101,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1124,7 +1124,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1147,7 +1147,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1168,7 +1168,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1191,7 +1191,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1210,7 +1210,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1231,7 +1231,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1269,7 +1269,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1288,7 +1288,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1309,7 +1309,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1322,7 +1322,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>100</v>
       </c>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>100</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>100</v>
       </c>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1412,7 +1412,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>100</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>100</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>100</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>100</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>100</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>100</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="173.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>100</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1640,7 +1640,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>50</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>50</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>50</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1742,7 +1742,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -1755,7 +1755,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>50</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1797,7 +1797,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1810,7 +1810,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1823,7 +1823,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="23" t="s">
@@ -1840,7 +1840,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="23" t="s">
@@ -1857,7 +1857,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="23" t="s">
@@ -1874,7 +1874,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="23" t="s">
@@ -1891,7 +1891,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="23" t="s">
@@ -1908,7 +1908,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="23" t="s">
@@ -1925,7 +1925,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="23" t="s">
@@ -1942,7 +1942,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="23" t="s">
@@ -1959,7 +1959,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="23"/>
@@ -1972,7 +1972,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="23" t="s">
@@ -1989,7 +1989,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="23" t="s">
@@ -2006,7 +2006,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="23" t="s">
@@ -2023,7 +2023,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="23" t="s">
@@ -2040,7 +2040,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="23" t="s">
@@ -2057,7 +2057,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="23" t="s">
@@ -2074,7 +2074,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="23" t="s">
@@ -2091,7 +2091,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="23" t="s">
@@ -2108,7 +2108,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="23" t="s">
@@ -2125,7 +2125,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="23" t="s">
@@ -2142,7 +2142,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="23"/>
@@ -2155,7 +2155,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="23" t="s">
@@ -2174,7 +2174,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="23" t="s">
@@ -2193,7 +2193,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="23" t="s">
@@ -2212,7 +2212,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="23" t="s">
@@ -2231,7 +2231,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="23"/>
@@ -2244,7 +2244,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="23"/>
@@ -2257,7 +2257,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2270,7 +2270,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2283,7 +2283,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -2296,7 +2296,7 @@
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>5</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
@@ -2334,7 +2334,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>5</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>5</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>10</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>5</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>5</v>
       </c>
@@ -2462,18 +2462,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I74" s="29">
-        <f>SUM(I2:I72)</f>
-        <v>0</v>
+        <f t="shared" ref="I74:K74" si="0">SUM(I2:I72)</f>
+        <v>1.1666666666666665</v>
       </c>
       <c r="J74" s="29">
-        <f>SUM(J2:J72)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.62847222222222221</v>
       </c>
       <c r="K74" s="29">
-        <f>SUM(K2:K72)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ephec-my.sharepoint.com/personal/he201742_students_ephec_be/Documents/0-COURS/BAC2/Q2/Dev_Info_Avance-Web/2-Projet/0-GitProjet_Gr29/Documents/2-UsersStories/Propre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="13_ncr:1_{0E14F4AE-A93F-476F-AB81-9E938EBDEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7AB442C2-D8B9-F244-BD09-9A8BA64EF942}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="13_ncr:1_{0E14F4AE-A93F-476F-AB81-9E938EBDEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3F56E58-F62C-5A4E-AC6A-797C4DE88E67}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="440" windowWidth="33600" windowHeight="20560" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
@@ -524,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,12 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -660,46 +654,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1034,8 +1025,8 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1054,37 +1045,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1114,13 +1105,13 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -1137,13 +1128,13 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1160,11 +1151,11 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="K5" s="27">
+      <c r="K5" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1181,13 +1172,13 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>0.125</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>0.125</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -1204,7 +1195,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>0.125</v>
       </c>
       <c r="J7" s="10"/>
@@ -1223,11 +1214,11 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
         <v>0.1875</v>
       </c>
     </row>
@@ -1245,7 +1236,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K9" s="10"/>
@@ -1263,7 +1254,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J10" s="10"/>
@@ -1282,7 +1273,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J11" s="10"/>
@@ -1301,11 +1292,11 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="28">
+      <c r="I12" s="27">
         <v>0.125</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="33">
+      <c r="K12" s="32">
         <v>0.125</v>
       </c>
     </row>
@@ -1338,7 +1329,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <v>0.10416666666666667</v>
       </c>
       <c r="K14" s="10"/>
@@ -1367,7 +1358,7 @@
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <v>0.20833333333333334</v>
       </c>
       <c r="K15" s="10"/>
@@ -1394,7 +1385,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="27">
+      <c r="J16" s="26">
         <v>0.125</v>
       </c>
       <c r="K16" s="10"/>
@@ -1437,11 +1428,11 @@
       <c r="H18" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="25">
         <v>0.20833333333333334</v>
       </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="26">
+      <c r="K18" s="25">
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -1497,7 +1488,7 @@
       <c r="H20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <v>0.10416666666666667</v>
       </c>
       <c r="J20" s="10"/>
@@ -1526,7 +1517,7 @@
         <v>86</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J21" s="10"/>
@@ -1557,11 +1548,11 @@
       <c r="H22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="25">
+      <c r="K22" s="24">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1587,10 +1578,10 @@
       <c r="G23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="J23" s="10"/>
@@ -1619,11 +1610,11 @@
         <v>117</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="31">
+      <c r="I24" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="31">
+      <c r="K24" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1665,7 +1656,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="25">
+      <c r="K26" s="24">
         <v>0.125</v>
       </c>
     </row>
@@ -1691,12 +1682,12 @@
       <c r="G27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="31" t="s">
         <v>112</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="25">
+      <c r="K27" s="24">
         <v>0.125</v>
       </c>
     </row>
@@ -1725,7 +1716,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="25">
+      <c r="K28" s="24">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -1780,7 +1771,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="24">
+      <c r="K31" s="30">
         <v>0.125</v>
       </c>
     </row>
@@ -2463,15 +2454,15 @@
       <c r="K71" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I74" s="29">
+      <c r="I74" s="28">
         <f t="shared" ref="I74:K74" si="0">SUM(I2:I72)</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="J74" s="29">
+      <c r="J74" s="28">
         <f t="shared" si="0"/>
         <v>0.62847222222222221</v>
       </c>
-      <c r="K74" s="29">
+      <c r="K74" s="28">
         <f t="shared" si="0"/>
         <v>1.3333333333333333</v>
       </c>

--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ephec-my.sharepoint.com/personal/he201742_students_ephec_be/Documents/0-COURS/BAC2/Q2/Dev_Info_Avance-Web/2-Projet/0-GitProjet_Gr29/Documents/2-UsersStories/Propre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ephec-my.sharepoint.com/personal/he201732_students_ephec_be/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="445" documentId="13_ncr:1_{0E14F4AE-A93F-476F-AB81-9E938EBDEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F3F56E58-F62C-5A4E-AC6A-797C4DE88E67}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{4AA1605E-4D53-4125-A60E-CDDA73F71D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C9427D5-94EB-3147-AB55-797190B85F45}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="440" windowWidth="33600" windowHeight="20560" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
   <si>
     <t>Préparation</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Formation en ligne</t>
   </si>
   <si>
-    <t>Gestion des erreurs</t>
-  </si>
-  <si>
     <t>Gestion application</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Choix technologiques front end</t>
   </si>
   <si>
-    <t>HTML général</t>
-  </si>
-  <si>
     <t>API</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
     <t>Affichage élèves</t>
   </si>
   <si>
-    <t>US01.2</t>
-  </si>
-  <si>
     <t>Qui</t>
   </si>
   <si>
@@ -176,119 +167,30 @@
     <t>Front-end</t>
   </si>
   <si>
-    <t>En tant qu'utilisateur, une fois connecté, je souhaite être redirigé vers ma page de travail
-Role - Droit - Page de travail
-Directeur - 1 - Secretariat
-Secrétaire - 2 - Secrétariat
-Garderie - 3 - Garderie</t>
-  </si>
-  <si>
-    <t>* Récupérer le s droits de la personne
-* Rediriger vers la page adéquate en fonction des droits</t>
-  </si>
-  <si>
-    <t>US01.1</t>
-  </si>
-  <si>
     <t>Gestion élèves : Afficher détails</t>
   </si>
   <si>
-    <t>En tant que secrétaire, je souhaite pouvoir voir les données précises sur un élève une fois celui-ci séléctionné</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur de l'appication, je souhaite pouvoir me connecter avec un mon identifiant et mon mot de passe.</t>
-  </si>
-  <si>
     <t>Se connecter</t>
   </si>
   <si>
-    <t>*Récupérer les détais de l'élève et ses parents
-*Envoyer les données à la vue</t>
-  </si>
-  <si>
-    <t>*Récupérer tous les élèves dans la base de donnée
-*Envoyer la liste des élèves au tableau de la vue</t>
-  </si>
-  <si>
     <t>*Afficher les élèves sous forme de tableau</t>
   </si>
   <si>
-    <t>*Ligne du tableau en surbrillance
-*Affichage de l'élève, ses parents et détails</t>
-  </si>
-  <si>
-    <t>* Récupérer les données introduites par l'utilisateur
-* Vérifier que les données introduites sont recevables
-* Comparer avec la base de donnée
-* Token de connection</t>
-  </si>
-  <si>
-    <t>* Formulaire avec 2 champs
-* Un bouton pour valider</t>
-  </si>
-  <si>
     <t>Gestion élèves : Modifier détails</t>
   </si>
   <si>
-    <t>En tant que secrétaire, je veux pouvoir modifier les valeurs d'un élève ou de ses parents et que cela soit enregistrer dans la base de donnée.</t>
-  </si>
-  <si>
     <t>US02</t>
   </si>
   <si>
     <t>Arrivée&amp;Départ</t>
   </si>
   <si>
-    <t>En tant que dame de la garderie, je souhaite pouvoir ajouter une nouvelle entrée/sortie au tableau garderie. Pour se faire je dois pouvoir sélectionner une élève avec son nom et prénom, une date, une heure et une valeur d'entrée/sortie.</t>
-  </si>
-  <si>
-    <t>*Récupérer les détais de l'élève et ses parents
-*Envoyer les données à la vue
-*Récupérer les modifications apportées
-*Envoyer les modifications dans la base de donnée</t>
-  </si>
-  <si>
-    <t>* Récupérer les valeurs entrées par la dame de la garderie dans le formulaire et de les ajouter sous le bon format dans la DB.</t>
-  </si>
-  <si>
-    <t>* Affichage d'un formulaire permettant à la dame de la garderie d'entrée les valeurs souhaitées pour ajouter une entrée/sortie dans le tableau garderie. (formulaire dépendant des sous-tâches de la US07)</t>
-  </si>
-  <si>
-    <t>US02.1</t>
-  </si>
-  <si>
-    <t>*Bouton modifier en fin de ligne
-*Affichage de l'élève, ses parents et détails
-*Bouton sauvegarder</t>
-  </si>
-  <si>
     <t>Arrivée&amp;Départ : Choix de l'élève</t>
   </si>
   <si>
-    <t>En tant que dame de la garderie, je souhaite pouvoir sélectionner un élève particulier dans un menu déroulant lorsque je dois ajouter une entrée/sortie à la garderie.</t>
-  </si>
-  <si>
-    <t>* Récupérer la valeur entrée par la dame de la garderie dans le champs texte et retourner une liste de suggestions en fonction de cette valeur entrée.</t>
-  </si>
-  <si>
     <t>* Affichage d'une liste de suggestion en fonction de la valeur entrée.</t>
   </si>
   <si>
-    <t>US02.2</t>
-  </si>
-  <si>
-    <t>Arrivée&amp;Départ : Choix de la date</t>
-  </si>
-  <si>
-    <t>En tant que dame de la garderie, je souhaite pouvoir sélectionner une date dans un calendrier lorsque je dois ajouter une entrée/sortie à la garderie.</t>
-  </si>
-  <si>
-    <t>* Récupérer la date sélectionner par la dame de la garderie.</t>
-  </si>
-  <si>
-    <t>* Affichage d'un calendrier avec la possibilité de sélectionner une date dans celui-ci</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -296,42 +198,6 @@
   </si>
   <si>
     <t>En tant que directeur, je souhaite pourvoir ajouter un élève et ses parents à la base de données.</t>
-  </si>
-  <si>
-    <t>US02.3</t>
-  </si>
-  <si>
-    <t>Arrivée&amp;Départ : Choix de l'heure</t>
-  </si>
-  <si>
-    <t>En tant que dame de la garderie, je souhaite pouvoir entrer une heure lorsque je dois ajouter une entrée/sortie à la garderie.</t>
-  </si>
-  <si>
-    <t>* Récupérer l'heure entrée par la dame de la garderie.</t>
-  </si>
-  <si>
-    <t>* Afficher un champ texte permettant d'entrée une heure</t>
-  </si>
-  <si>
-    <t>US02.4</t>
-  </si>
-  <si>
-    <t>Arrivée&amp;Départ : Choix de la valeur d'entrée/sortie</t>
-  </si>
-  <si>
-    <t>En tant que dame de la garderie, je souhaite pouvoir entrer la valeur définissant une entrée/sortie lorsque je dois ajouter une entrée/sortie à la garderie.</t>
-  </si>
-  <si>
-    <t>* Récupérer la valeur d'entrée/sortie sélectionnée par la dame de la garderie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Récupérer les données introduites dans le formulaire
-*Sauvegarder les parents en premier
-*Sauvegarder l'élève en second avec les bons idParents
-</t>
-  </si>
-  <si>
-    <t>* Afficher un slider permettant de sélectionner la valeur entrée ou sortie</t>
   </si>
   <si>
     <t>US03</t>
@@ -344,18 +210,6 @@
     <t>US05</t>
   </si>
   <si>
-    <t>US06.2</t>
-  </si>
-  <si>
-    <t>US06.1</t>
-  </si>
-  <si>
-    <t>US06.3</t>
-  </si>
-  <si>
-    <t>Consulter la liste des entrées et sorties</t>
-  </si>
-  <si>
     <t>Tests unitaire : GET garderie</t>
   </si>
   <si>
@@ -383,28 +237,13 @@
     <t>Tests unitaire : POST eleves</t>
   </si>
   <si>
-    <t>En tant que dame de la garderie, je souhaite pouvoir consulter dans un tableau l'ensemble des élèves qui ont été présent à la garderie. Je dois pouvoir consulter les informations relatives à l'élève suivantes : Le nom, le prénom, l'année dans laquelle se trouve l'élève, la date et l'heure à laquelle l'entrée/sortie de la garderie est enregistrée, une indication quand à l'état de l'entrée ou sortie de la garderie.</t>
-  </si>
-  <si>
     <t>DEV</t>
   </si>
   <si>
-    <t>* Récupérer les données de la table "Garderie" dans la base de donnée.
-* Compléter le tableau de la page "Garderie" avec les données récupérées.
-* Récupérer les données d'une semaine spécifique.</t>
-  </si>
-  <si>
     <t>Parfois une erreur quand la requete prend trop de temps</t>
   </si>
   <si>
-    <t>* Afficher le tableau complété avec les données récupérée dans la DB.
-* Afficher des boutons permettant de sélectionner une semaine spécifique pour laquelle on souhaite voir les entrées/sorties.</t>
-  </si>
-  <si>
     <t>US04</t>
-  </si>
-  <si>
-    <t>En tant que dame de la garderie, je souhaite que si j'entre une valeur erronée pour la date, l'heure, la valeur d'entrée/sortie en fonction de l'heure ou une entrée/sortie déjà encodée, il y ait un message d'erreur qui s'affiche à l'écran.</t>
   </si>
   <si>
     <t>* Envoyer une alerte si la date encodée est une date dans le futur, est un samedi ou un dimanche, est un jour férié.
@@ -458,12 +297,6 @@
     <t>Avoir des logs de la base de données</t>
   </si>
   <si>
-    <t>Vérifier les données avant envois vers la basae de donnée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essayer avec un calendar mais ne fonctionnait pas correctement, donc (input type=date) </t>
-  </si>
-  <si>
     <t>Slider trop long a implémenter et valeur non récupérable à la fin</t>
   </si>
   <si>
@@ -477,6 +310,384 @@
   </si>
   <si>
     <t>°</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>* Formulaire avec 2 champs
+* Un bouton "Se connecter" pour valider</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur de l'appication, je souhaite pouvoir me connecter avec un mon identifiant et mon mot de passe quand je clique sur le bouton "se connecter".</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>* Récupérer les droits de la personne
+* Rediriger vers la page adéquate en fonction des droits</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En tant qu'utilisateur, une fois connecté, je souhaite être redirigé vers ma page de travail en fonction de mes droits.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    Role                       Droit                Page de travail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Directeur                     1                       Secretariat
+Secrétaire                   2                        Secrétariat
+Garderie                      3                       Garderie</t>
+    </r>
+  </si>
+  <si>
+    <t>* Récupérer les valeurs entrées par la dame de la garderie dans le formulaire et de les ajouter sous le bon format dans la DB via l'API (fonction POST garderie).</t>
+  </si>
+  <si>
+    <t>En tant que dame de la garderie, je souhaite pouvoir ajouter une nouvelle entrée au tableau garderie. Pour se faire je dois pouvoir entrer le nom &amp; prénom d'un élève, une date, une heure et une valeur déterminant si c'est une "arrivée" ou un "départ". Le tout doit être sauvegardé dans la DB lorsque je clique sur le bouton "Enregistrer".</t>
+  </si>
+  <si>
+    <t>* Affichage d'un formulaire permettant à la dame de la garderie d'entrée les valeurs souhaitées pour ajouter une entrée/sortie dans le tableau garderie.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Récupérer les données introduites par l'utilisateur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vérifier que les données introduites sont recevables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Comparer avec la base de donnée via l'API (fonction login)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Token de connection</t>
+    </r>
+  </si>
+  <si>
+    <t>En tant que dame de la garderie,pour plus de facilité je souhaite pouvoir sélectionner un élève particulier dans un menu déroulant lorsque je dois ajouter une arrivée ou un départ à la garderie.</t>
+  </si>
+  <si>
+    <t>Arrivée&amp;Départ : Choix de la valeur d'arriver ou de départ de la garderie</t>
+  </si>
+  <si>
+    <t>En tant que dame de la garderie, je souhaite pouvoir entrer la valeur définissant une arrivée ou un départ lorsque je dois ajouter une entrée à la garderie. Et ce afin d'être uniforme dans les valeurs d'entrée possibles (uniquement 2 choix possibles dans ce cas).</t>
+  </si>
+  <si>
+    <t>* Afficher une liste déroulante permettant de sélectionner soit la valeur "arrivée" soit la valeur "départ".</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Consulter la liste des arrivées et des départs</t>
+  </si>
+  <si>
+    <t>En tant que dame de la garderie, je souhaite pouvoir consulter dans un tableau l'ensemble des élèves qui ont été présent à la garderie pour une semaine spécifiquement choisie par l'utilisateur. Je dois pouvoir consulter les informations suivantes relatives à l'élève : Le nom, le prénom, l'année dans laquelle se trouve l'élève, la date et l'heure à laquelle l'arrivée ou le départ de la garderie est enregistrée, une indication quand à l'état d'arrivée ou départ de la garderie.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Afficher le tableau complété avec les données récupérée dans la DB.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Afficher des boutons permettant de sélectionner une semaine spécifique pour laquelle on souhaite voir les entrées/sorties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>* Récupérer la liste des élèves via l'API (fonction GET eleves) et afficher les noms les plus proches correspondant à ce que la dame de la garderie introduit.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Récupérer les données de la table "Garderie" dans la base de donnée via l'API (fonction GET garderie).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compléter le tableau de la page "Garderie" avec les données récupérées.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Récupérer les données d'une semaine spécifique en passant les dates sélectionnées à l'API.</t>
+    </r>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>En tant que dame de la garderie, je souhaite que si j'entre une valeur erronée pour la date, l'heure, la valeur d'arrivée ou de départ en fonction de l'heure, il y ait un message d'erreur qui s'affiche à l'écran.</t>
+  </si>
+  <si>
+    <t>Gestion des erreurs d'encodage</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>*Récupérer tous les élèves dans la base de donnée via l'API (fonction GET eleves).
+*Envoyer la liste des élèves au tableau de la vue</t>
+  </si>
+  <si>
+    <t>*Récupérer les détais de l'élève et ses parents via l'API (fonction GET eleves by ID et GET parents by ID).
+*Envoyer les données à la vue</t>
+  </si>
+  <si>
+    <t>En tant que secrétaire, je souhaite pouvoir voir les données précises sur un élève une fois celui-ci séléctionné via le bouton "Details" de sa ligne</t>
+  </si>
+  <si>
+    <t>En tant que secrétaire, je veux pouvoir modifier les valeurs d'un élève ou de ses parents et que cela soit enregistrer dans la base de donnée quand je clique sur le bouton "Sauvegarder".</t>
+  </si>
+  <si>
+    <t>*Récupérer les détails de l'élève et ses parents via l'API (fonction GET eleves by ID et GET parents by ID).
+*Envoyer les données à la vue
+*Récupérer les modifications apportées
+*Envoyer les modifications dans la base de donnée via l'API (fonction POST eleves et POST parents)</t>
+  </si>
+  <si>
+    <t>*Bouton "Détails" en fin de ligne
+*Affichage de l'élève, ses parents et détails
+*Bouton "Sauvegarder"</t>
+  </si>
+  <si>
+    <t>*Ligne du tableau en surbrillance
+*Bouton "Détails" en fin de ligne
+*Affichage de l'élève, ses parents et détails</t>
+  </si>
+  <si>
+    <t>* Récupérer la valeur choisie par la dame de la garderie entre l'arrivée ou le départ</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <r>
+      <t>*Récupérer les données introduites dans le formulaire
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sauvegarder les parents en premier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sauvegarder l'élève en second avec les bons idParents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>* Application d'un token lors de la connection
+* Temps de connection limité à 12h avant de devoir se reconnecter pour secrétariat/direction et 2h pour garderie</t>
+  </si>
+  <si>
+    <t>* Groupes au niveau de la DB avec droits de modifications au niveau des tables distincts.
+   - Garderie -&gt; READ sur eleves &amp; WRITE sur garderie
+   - Secretariat -&gt; READ &amp; WRITE sur eleves
+   - Direction -&gt; READ &amp; WRITE sur tout excepté table utilisateur</t>
+  </si>
+  <si>
+    <t>Vérifier les données avant envois vers la base de donnée</t>
+  </si>
+  <si>
+    <t>* Soit dans le post
+* Soit ajout de pattern dans le formulaire</t>
   </si>
 </sst>
 </file>
@@ -486,7 +697,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +733,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="7">
@@ -562,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -598,11 +835,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -707,6 +957,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +1015,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1022,64 +1311,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5B8967-943E-45FD-AD50-36B24B8571A1}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="86.7109375" style="14" customWidth="1"/>
     <col min="6" max="6" width="44" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="14" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21">
       <c r="A1" s="33" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>46</v>
-      </c>
       <c r="H1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1092,7 +1381,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1115,7 +1404,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1138,28 +1427,28 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="26">
-        <v>2.0833333333333332E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="26">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1182,14 +1471,14 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1201,14 +1490,14 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1222,14 +1511,14 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="30">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1241,14 +1530,14 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1260,14 +1549,14 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1279,118 +1568,118 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="27">
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="32">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>100</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="26">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="27">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="32">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="115.5" customHeight="1">
       <c r="A15" s="5">
         <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>100</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="26">
+      <c r="J15" s="30">
         <v>0.20833333333333334</v>
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="108.75" customHeight="1">
       <c r="A16" s="5">
         <v>100</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>96</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="26">
+      <c r="J16" s="24">
         <v>0.125</v>
       </c>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1403,396 +1692,368 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A18" s="5">
         <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="24">
         <v>0.20833333333333334</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="25">
-        <v>0.20833333333333334</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="65.25" customHeight="1">
       <c r="A19" s="5">
         <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K19" s="39">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="45">
       <c r="A20" s="5">
         <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="I20" s="24">
-        <v>0.10416666666666667</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="K20" s="24">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="110.25" customHeight="1">
       <c r="A21" s="5">
         <v>100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="24">
-        <v>4.1666666666666664E-2</v>
+        <v>108</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="30">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:11" s="42" customFormat="1" ht="180.95" customHeight="1">
+      <c r="A22" s="17">
         <v>100</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="24">
+        <v>71</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="40">
         <v>4.1666666666666664E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>100</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="30">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="41"/>
+      <c r="K22" s="40">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A24" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="60">
+      <c r="A25" s="5">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="30">
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="120">
       <c r="A26" s="5">
         <v>50</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="D26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
       <c r="K26" s="24">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>50</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>112</v>
-      </c>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="24">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" ht="90">
+      <c r="A29" s="5">
         <v>50</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="24">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="B29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="H29" s="13"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>50</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="K29" s="30">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="13"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="30">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -1801,27 +2062,31 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-    </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -1831,14 +2096,14 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -1848,14 +2113,14 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -1865,14 +2130,14 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -1882,14 +2147,14 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -1899,14 +2164,14 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -1916,15 +2181,11 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>100</v>
-      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -1933,14 +2194,14 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -1950,11 +2211,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -1963,14 +2228,14 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -1980,14 +2245,14 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -1997,14 +2262,14 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -2014,14 +2279,14 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -2031,14 +2296,14 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -2048,14 +2313,14 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -2065,14 +2330,14 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -2082,14 +2347,14 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -2099,15 +2364,11 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -2116,86 +2377,94 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="45.75" customHeight="1">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D53" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="G53" s="46"/>
       <c r="H53" s="13"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+    <row r="54" spans="1:11" s="49" customFormat="1" ht="68.099999999999994" customHeight="1">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="46"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-    </row>
-    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
       <c r="H55" s="13"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="33.950000000000003" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="23" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="E56" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="G56" s="46"/>
       <c r="H56" s="13"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>131</v>
-      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -2203,18 +2472,12 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>132</v>
-      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
@@ -2222,10 +2485,10 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="23"/>
+      <c r="C59" s="4"/>
       <c r="D59" s="16"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -2235,10 +2498,10 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="23"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="16"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
@@ -2248,25 +2511,33 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
+    <row r="61" spans="1:11">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="4">
+        <v>5</v>
+      </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="13"/>
+      <c r="C62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -2274,50 +2545,60 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-    </row>
-    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>5</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
+    <row r="65" spans="1:11">
+      <c r="A65" s="4">
+        <v>5</v>
+      </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
@@ -2325,7 +2606,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -2334,34 +2615,28 @@
         <v>2</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>14</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -2369,7 +2644,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>5</v>
       </c>
@@ -2378,97 +2653,369 @@
         <v>2</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="16"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>5</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-    </row>
-    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>5</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I74" s="28">
-        <f t="shared" ref="I74:K74" si="0">SUM(I2:I72)</f>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="J74" s="28">
+    <row r="72" spans="1:11">
+      <c r="I72" s="28">
+        <f t="shared" ref="I72:K72" si="0">SUM(I2:I70)</f>
+        <v>1.2916666666666665</v>
+      </c>
+      <c r="J72" s="28">
         <f t="shared" si="0"/>
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="K74" s="28">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="K72" s="28">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>1.5416666666666667</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD38B4BA879657459FE8C7022D55B717" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="d5c0f8514766e5ee81dc36ef583fe1d6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83" xmlns:ns4="924d9142-22e9-433f-95fb-5e56abb45a2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fda3cd559eb82edd80343133af36ddc" ns1:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83"/>
+    <xsd:import namespace="924d9142-22e9-433f-95fb-5e56abb45a2b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
+                <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="16" nillable="true" ma:displayName="Propriétés de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="17" nillable="true" ma:displayName="Action d’interface utilisateur de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="21" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="22" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="924d9142-22e9-433f-95fb-5e56abb45a2b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Partage du hachage d’indicateur" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EBF2B6D-0027-4C97-A9D7-4F49CDD76F62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83"/>
+    <ds:schemaRef ds:uri="924d9142-22e9-433f-95fb-5e56abb45a2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4B68BC-BE8F-4A5B-B7EC-622C230C2320}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="924d9142-22e9-433f-95fb-5e56abb45a2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ephec-my.sharepoint.com/personal/he201732_students_ephec_be/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web2.0\Documents\2-UsersStories\Propre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{4AA1605E-4D53-4125-A60E-CDDA73F71D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2C9427D5-94EB-3147-AB55-797190B85F45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11EA172-197A-45EE-8BC2-15A735B6D23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
   <si>
     <t>Préparation</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>Droit de modification de la base de donnée</t>
-  </si>
-  <si>
-    <t>Avoir des logs de la base de données</t>
   </si>
   <si>
     <t>Slider trop long a implémenter et valeur non récupérable à la fin</t>
@@ -689,6 +686,19 @@
     <t>* Soit dans le post
 * Soit ajout de pattern dans le formulaire</t>
   </si>
+  <si>
+    <t>Stockage des mots de passe</t>
+  </si>
+  <si>
+    <t>*Haché les mots de passe</t>
+  </si>
+  <si>
+    <t>Sauvegarde base de données</t>
+  </si>
+  <si>
+    <t>* Logs de la base de données pendant 1 an
+* Sauvegarde chaque soir et récupérable pendant 1 semaine</t>
+  </si>
 </sst>
 </file>
 
@@ -697,7 +707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,13 +739,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -852,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -958,7 +961,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,26 +979,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1311,11 +1308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5B8967-943E-45FD-AD50-36B24B8571A1}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1335,7 +1332,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="21">
       <c r="A1" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>34</v>
@@ -1434,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1575,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1596,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1628,7 +1625,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
@@ -1637,13 +1634,13 @@
         <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
@@ -1666,10 +1663,10 @@
         <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1706,13 +1703,13 @@
         <v>49</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>63</v>
@@ -1739,10 +1736,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>51</v>
@@ -1765,19 +1762,19 @@
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="H20" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20" s="24">
         <v>8.3333333333333329E-2</v>
@@ -1792,25 +1789,25 @@
         <v>100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="H21" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="30">
         <v>8.3333333333333329E-2</v>
@@ -1823,16 +1820,16 @@
         <v>100</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>70</v>
@@ -1867,7 +1864,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
@@ -1879,7 +1876,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>46</v>
@@ -1896,7 +1893,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
@@ -1905,13 +1902,13 @@
         <v>44</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>68</v>
@@ -1927,7 +1924,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>2</v>
@@ -1936,13 +1933,13 @@
         <v>47</v>
       </c>
       <c r="E26" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="9"/>
@@ -1982,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>52</v>
@@ -1994,7 +1991,7 @@
         <v>54</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>56</v>
@@ -2389,19 +2386,19 @@
       <c r="E53" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F53" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="46"/>
+      <c r="F53" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="47"/>
       <c r="H53" s="13"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" s="49" customFormat="1" ht="68.099999999999994" customHeight="1">
+    <row r="54" spans="1:11" s="45" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -2410,35 +2407,37 @@
       <c r="E54" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="46"/>
+      <c r="F54" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" s="47"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="23" t="s">
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+    </row>
+    <row r="55" spans="1:11" s="45" customFormat="1">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="43" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="43"/>
-      <c r="G55" s="44"/>
+        <v>130</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="47"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-    </row>
-    <row r="56" spans="1:11" ht="33.950000000000003" customHeight="1">
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+    </row>
+    <row r="56" spans="1:11" ht="35.25" customHeight="1">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="23" t="s">
@@ -2448,25 +2447,33 @@
         <v>82</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="G56" s="46"/>
+        <v>132</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="47"/>
       <c r="H56" s="13"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="33.950000000000003" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="C57" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" s="47"/>
       <c r="H57" s="13"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2488,7 +2495,7 @@
     <row r="59" spans="1:11">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="16"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
@@ -2512,49 +2519,45 @@
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="4">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="4">
         <v>5</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -2563,22 +2566,16 @@
       <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="4">
-        <v>5</v>
-      </c>
+      <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="9"/>
@@ -2597,9 +2594,11 @@
         <v>14</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="9"/>
@@ -2618,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
@@ -2629,14 +2628,18 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
@@ -2646,21 +2649,15 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="13"/>
       <c r="H68" s="13"/>
       <c r="I68" s="9"/>
@@ -2676,13 +2673,13 @@
         <v>2</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -2690,26 +2687,50 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="72" spans="1:11">
-      <c r="I72" s="28">
-        <f t="shared" ref="I72:K72" si="0">SUM(I2:I70)</f>
+    <row r="70" spans="1:11">
+      <c r="A70" s="4">
+        <v>5</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="I73" s="28">
+        <f t="shared" ref="I73:K73" si="0">SUM(I2:I71)</f>
         <v>1.2916666666666665</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J73" s="28">
         <f t="shared" si="0"/>
         <v>0.52430555555555558</v>
       </c>
-      <c r="K72" s="28">
+      <c r="K73" s="28">
         <f t="shared" si="0"/>
         <v>1.5416666666666667</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
     <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2957,21 +2978,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2995,14 +3016,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4B68BC-BE8F-4A5B-B7EC-622C230C2320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3018,4 +3031,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web2.0\Documents\2-UsersStories\Propre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11EA172-197A-45EE-8BC2-15A735B6D23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE305F-EEFA-4AEF-82D4-1623043C130C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
@@ -197,14 +197,7 @@
     <t>Gestion élèves : Création</t>
   </si>
   <si>
-    <t>En tant que directeur, je souhaite pourvoir ajouter un élève et ses parents à la base de données.</t>
-  </si>
-  <si>
     <t>US03</t>
-  </si>
-  <si>
-    <t>*Bouton ajouter élève
-*Bouton sauvegarder</t>
   </si>
   <si>
     <t>US05</t>
@@ -600,17 +593,6 @@
     <t>En tant que secrétaire, je veux pouvoir modifier les valeurs d'un élève ou de ses parents et que cela soit enregistrer dans la base de donnée quand je clique sur le bouton "Sauvegarder".</t>
   </si>
   <si>
-    <t>*Récupérer les détails de l'élève et ses parents via l'API (fonction GET eleves by ID et GET parents by ID).
-*Envoyer les données à la vue
-*Récupérer les modifications apportées
-*Envoyer les modifications dans la base de donnée via l'API (fonction POST eleves et POST parents)</t>
-  </si>
-  <si>
-    <t>*Bouton "Détails" en fin de ligne
-*Affichage de l'élève, ses parents et détails
-*Bouton "Sauvegarder"</t>
-  </si>
-  <si>
     <t>*Ligne du tableau en surbrillance
 *Bouton "Détails" en fin de ligne
 *Affichage de l'élève, ses parents et détails</t>
@@ -622,8 +604,49 @@
     <t>US11</t>
   </si>
   <si>
+    <t>* Application d'un token lors de la connection
+* Temps de connection limité à 12h avant de devoir se reconnecter pour secrétariat/direction et 2h pour garderie</t>
+  </si>
+  <si>
+    <t>* Groupes au niveau de la DB avec droits de modifications au niveau des tables distincts.
+   - Garderie -&gt; READ sur eleves &amp; WRITE sur garderie
+   - Secretariat -&gt; READ &amp; WRITE sur eleves
+   - Direction -&gt; READ &amp; WRITE sur tout excepté table utilisateur</t>
+  </si>
+  <si>
+    <t>Vérifier les données avant envois vers la base de donnée</t>
+  </si>
+  <si>
+    <t>* Soit dans le post
+* Soit ajout de pattern dans le formulaire</t>
+  </si>
+  <si>
+    <t>Stockage des mots de passe</t>
+  </si>
+  <si>
+    <t>*Haché les mots de passe</t>
+  </si>
+  <si>
+    <t>Sauvegarde base de données</t>
+  </si>
+  <si>
+    <t>* Logs de la base de données pendant 1 an
+* Sauvegarde chaque soir et récupérable pendant 1 semaine</t>
+  </si>
+  <si>
+    <t>* Récupérer les détails de l'élève et ses parents via l'API (fonction GET eleves by ID et GET parents by ID).
+* Envoyer les données à la vue
+* Récupérer les modifications apportées
+* Envoyer les modifications dans la base de donnée via l'API (fonction POST eleves et POST parents)</t>
+  </si>
+  <si>
+    <t>* Bouton "Détails" en fin de ligne
+* Affichage de l'élève, ses parents et détails
+* Bouton "Sauvegarder"</t>
+  </si>
+  <si>
     <r>
-      <t>*Récupérer les données introduites dans le formulaire
+      <t>* Récupérer les données introduites dans le formulaire
 *</t>
     </r>
     <r>
@@ -670,34 +693,11 @@
     </r>
   </si>
   <si>
-    <t>* Application d'un token lors de la connection
-* Temps de connection limité à 12h avant de devoir se reconnecter pour secrétariat/direction et 2h pour garderie</t>
-  </si>
-  <si>
-    <t>* Groupes au niveau de la DB avec droits de modifications au niveau des tables distincts.
-   - Garderie -&gt; READ sur eleves &amp; WRITE sur garderie
-   - Secretariat -&gt; READ &amp; WRITE sur eleves
-   - Direction -&gt; READ &amp; WRITE sur tout excepté table utilisateur</t>
-  </si>
-  <si>
-    <t>Vérifier les données avant envois vers la base de donnée</t>
-  </si>
-  <si>
-    <t>* Soit dans le post
-* Soit ajout de pattern dans le formulaire</t>
-  </si>
-  <si>
-    <t>Stockage des mots de passe</t>
-  </si>
-  <si>
-    <t>*Haché les mots de passe</t>
-  </si>
-  <si>
-    <t>Sauvegarde base de données</t>
-  </si>
-  <si>
-    <t>* Logs de la base de données pendant 1 an
-* Sauvegarde chaque soir et récupérable pendant 1 semaine</t>
+    <t>En tant que directeur, je souhaite pourvoir ajouter un élève et ses parents à la base de données après avoir charler la page permettant la création d'un nouvel élève et cliquer sur le bouton "Sauvegarder"</t>
+  </si>
+  <si>
+    <t>*Bouton "Nouvel élève"
+*Bouton "Sauvegarder"</t>
   </si>
 </sst>
 </file>
@@ -1311,8 +1311,8 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1332,7 +1332,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="21">
       <c r="A1" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>34</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -1572,7 +1572,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1593,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1625,7 +1625,7 @@
         <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
@@ -1634,13 +1634,13 @@
         <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
@@ -1663,10 +1663,10 @@
         <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1694,7 +1694,7 @@
         <v>100</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1</v>
@@ -1703,16 +1703,16 @@
         <v>49</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="H18" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I18" s="24">
         <v>0.29166666666666669</v>
@@ -1727,7 +1727,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1</v>
@@ -1736,10 +1736,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>51</v>
@@ -1756,25 +1756,25 @@
         <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="H20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="24">
         <v>8.3333333333333329E-2</v>
@@ -1789,25 +1789,25 @@
         <v>100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="H21" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I21" s="30">
         <v>8.3333333333333329E-2</v>
@@ -1815,27 +1815,27 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" s="42" customFormat="1" ht="180.95" customHeight="1">
+    <row r="22" spans="1:11" s="42" customFormat="1" ht="189" customHeight="1">
       <c r="A22" s="17">
         <v>100</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="40">
@@ -1864,7 +1864,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
@@ -1876,7 +1876,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>46</v>
@@ -1888,12 +1888,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="60">
+    <row r="25" spans="1:11" ht="66.75" customHeight="1">
       <c r="A25" s="5">
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
@@ -1902,16 +1902,16 @@
         <v>44</v>
       </c>
       <c r="E25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="H25" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1919,12 +1919,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="120">
+    <row r="26" spans="1:11" ht="126.75" customHeight="1">
       <c r="A26" s="5">
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>2</v>
@@ -1933,13 +1933,13 @@
         <v>47</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="9"/>
@@ -1979,7 +1979,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>52</v>
@@ -1988,13 +1988,13 @@
         <v>53</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="9"/>
@@ -2046,10 +2046,10 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -2063,10 +2063,10 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -2080,10 +2080,10 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -2097,10 +2097,10 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -2114,10 +2114,10 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -2131,10 +2131,10 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -2148,10 +2148,10 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -2165,10 +2165,10 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -2195,10 +2195,10 @@
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -2212,10 +2212,10 @@
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
@@ -2229,10 +2229,10 @@
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -2246,10 +2246,10 @@
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
@@ -2263,10 +2263,10 @@
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -2280,10 +2280,10 @@
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -2297,10 +2297,10 @@
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -2314,10 +2314,10 @@
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -2331,10 +2331,10 @@
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -2348,10 +2348,10 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
@@ -2378,16 +2378,16 @@
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F53" s="46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G53" s="47"/>
       <c r="H53" s="13"/>
@@ -2399,16 +2399,16 @@
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D54" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="F54" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G54" s="47"/>
       <c r="H54" s="13"/>
@@ -2420,16 +2420,16 @@
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F55" s="46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G55" s="47"/>
       <c r="H55" s="13"/>
@@ -2441,16 +2441,16 @@
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F56" s="46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G56" s="47"/>
       <c r="H56" s="13"/>
@@ -2462,16 +2462,16 @@
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G57" s="47"/>
       <c r="H57" s="13"/>
@@ -2978,21 +2978,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3016,6 +3016,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4B68BC-BE8F-4A5B-B7EC-622C230C2320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3031,12 +3039,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web2.0\Documents\2-UsersStories\Propre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ephec-my.sharepoint.com/personal/he201742_students_ephec_be/Documents/0-COURS/BAC2/Q2/Dev_Info_Avance-Web/2-Projet/0-GitProjet_Gr29/Documents/2-UsersStories/Propre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE305F-EEFA-4AEF-82D4-1623043C130C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{4D47215A-4DC8-D849-AE19-C975253A59D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5685280-2C91-DA4E-A834-326E9B6DC3EA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1312,25 +1312,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="86.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="86.6640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="44" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="14" customWidth="1"/>
-    <col min="8" max="8" width="38.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="38.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="21">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="22">
       <c r="A1" s="33" t="s">
         <v>87</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1401,7 +1401,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1424,7 +1424,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1445,7 +1445,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="16">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1468,7 +1468,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1487,7 +1487,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1508,7 +1508,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30">
+    <row r="9" spans="1:11" ht="16">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="30">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1546,7 +1546,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="16">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1565,7 +1565,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="16">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1586,7 +1586,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="16">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1689,7 +1689,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="60">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="64">
       <c r="A18" s="5">
         <v>100</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="45">
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="48">
       <c r="A20" s="5">
         <v>100</v>
       </c>
@@ -1859,7 +1859,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="60">
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="48">
       <c r="A24" s="5">
         <v>50</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11" ht="90">
+    <row r="29" spans="1:11" ht="64">
       <c r="A29" s="5">
         <v>50</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="16">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="23" t="s">
@@ -2059,7 +2059,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="16">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="23" t="s">
@@ -2076,7 +2076,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="16">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="23" t="s">
@@ -2093,7 +2093,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="16">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="23" t="s">
@@ -2110,7 +2110,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="16">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="23" t="s">
@@ -2127,7 +2127,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" ht="16">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="23" t="s">
@@ -2144,7 +2144,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" ht="16">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="23" t="s">
@@ -2161,7 +2161,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" ht="16">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="23" t="s">
@@ -2191,7 +2191,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" ht="16">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="23" t="s">
@@ -2208,7 +2208,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" ht="16">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="23" t="s">
@@ -2225,7 +2225,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" ht="16">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="23" t="s">
@@ -2242,7 +2242,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" ht="16">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="23" t="s">
@@ -2259,7 +2259,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" ht="16">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="23" t="s">
@@ -2276,7 +2276,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" ht="16">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="23" t="s">
@@ -2293,7 +2293,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" ht="16">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="23" t="s">
@@ -2310,7 +2310,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" ht="16">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="23" t="s">
@@ -2327,7 +2327,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" ht="16">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="23" t="s">
@@ -2344,7 +2344,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="16">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="23" t="s">
@@ -2395,7 +2395,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" s="45" customFormat="1" ht="68.099999999999994" customHeight="1">
+    <row r="54" spans="1:11" s="45" customFormat="1" ht="68" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="43" t="s">
@@ -2416,7 +2416,7 @@
       <c r="J54" s="44"/>
       <c r="K54" s="44"/>
     </row>
-    <row r="55" spans="1:11" s="45" customFormat="1">
+    <row r="55" spans="1:11" s="45" customFormat="1" ht="16">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="43" t="s">
@@ -2458,7 +2458,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" ht="33.950000000000003" customHeight="1">
+    <row r="57" spans="1:11" ht="34" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="23" t="s">
@@ -2544,7 +2544,7 @@
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" ht="16">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" ht="16">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
@@ -2582,7 +2582,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" ht="16">
       <c r="A65" s="4">
         <v>5</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" ht="16">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="16">
       <c r="A67" s="4">
         <v>5</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" ht="16">
       <c r="A69" s="4">
         <v>5</v>
       </c>
@@ -2687,7 +2687,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" ht="16">
       <c r="A70" s="4">
         <v>5</v>
       </c>
@@ -2738,6 +2738,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD38B4BA879657459FE8C7022D55B717" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="d5c0f8514766e5ee81dc36ef583fe1d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83" xmlns:ns4="924d9142-22e9-433f-95fb-5e56abb45a2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fda3cd559eb82edd80343133af36ddc" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2977,25 +2995,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4B68BC-BE8F-4A5B-B7EC-622C230C2320}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="924d9142-22e9-433f-95fb-5e56abb45a2b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EBF2B6D-0027-4C97-A9D7-4F49CDD76F62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3013,30 +3039,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4B68BC-BE8F-4A5B-B7EC-622C230C2320}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="924d9142-22e9-433f-95fb-5e56abb45a2b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ephec-my.sharepoint.com/personal/he201742_students_ephec_be/Documents/0-COURS/BAC2/Q2/Dev_Info_Avance-Web/2-Projet/0-GitProjet_Gr29/Documents/2-UsersStories/Propre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web2.0\Documents\2-UsersStories\Propre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="114_{4D47215A-4DC8-D849-AE19-C975253A59D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5685280-2C91-DA4E-A834-326E9B6DC3EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E13047-3CB8-42EB-9489-2CEA98B049FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
   <si>
     <t>Préparation</t>
   </si>
@@ -699,6 +699,12 @@
     <t>*Bouton "Nouvel élève"
 *Bouton "Sauvegarder"</t>
   </si>
+  <si>
+    <t>Premier post fait, les autres inspirés donc plus rapide</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
 </sst>
 </file>
 
@@ -764,7 +770,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -798,6 +804,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -993,6 +1005,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,7 +1036,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1311,26 +1335,26 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="86.7109375" style="14" customWidth="1"/>
     <col min="6" max="6" width="44" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="14" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="38.42578125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21">
       <c r="A1" s="33" t="s">
         <v>87</v>
       </c>
@@ -1378,7 +1402,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1401,7 +1425,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1424,7 +1448,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1445,7 +1469,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1468,7 +1492,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1482,12 +1506,14 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="26">
-        <v>0.125</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="16">
+      <c r="K7" s="26">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1508,7 +1534,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="30">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1527,7 +1553,7 @@
       </c>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1546,7 +1572,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" ht="16">
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1565,7 +1591,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" ht="16">
+    <row r="12" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1586,7 +1612,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16">
+    <row r="13" spans="1:11">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -1689,7 +1715,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="64">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A18" s="5">
         <v>100</v>
       </c>
@@ -1715,7 +1741,7 @@
         <v>61</v>
       </c>
       <c r="I18" s="24">
-        <v>0.29166666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="24">
@@ -1751,7 +1777,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="48">
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="45">
       <c r="A20" s="5">
         <v>100</v>
       </c>
@@ -1809,8 +1835,8 @@
       <c r="H21" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="30">
-        <v>8.3333333333333329E-2</v>
+      <c r="I21" s="24">
+        <v>0.25</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -1859,7 +1885,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="48">
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="60">
       <c r="A24" s="5">
         <v>50</v>
       </c>
@@ -1974,7 +2000,7 @@
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11" ht="64">
+    <row r="29" spans="1:11" ht="90">
       <c r="A29" s="5">
         <v>50</v>
       </c>
@@ -2042,7 +2068,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11" ht="16">
+    <row r="33" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="23" t="s">
@@ -2059,7 +2085,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="1:11" ht="16">
+    <row r="34" spans="1:11">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="23" t="s">
@@ -2076,7 +2102,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="1:11" ht="16">
+    <row r="35" spans="1:11">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="23" t="s">
@@ -2093,7 +2119,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="1:11" ht="16">
+    <row r="36" spans="1:11">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="23" t="s">
@@ -2110,7 +2136,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="1:11" ht="16">
+    <row r="37" spans="1:11">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="23" t="s">
@@ -2127,7 +2153,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="1:11" ht="16">
+    <row r="38" spans="1:11">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="23" t="s">
@@ -2144,7 +2170,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="1:11" ht="16">
+    <row r="39" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="23" t="s">
@@ -2161,7 +2187,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:11" ht="16">
+    <row r="40" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="23" t="s">
@@ -2191,7 +2217,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:11" ht="16">
+    <row r="42" spans="1:11">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="23" t="s">
@@ -2204,11 +2230,15 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="50">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" ht="16">
+      <c r="K42" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="23" t="s">
@@ -2223,9 +2253,11 @@
       <c r="H43" s="13"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" ht="16">
+      <c r="K43" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="23" t="s">
@@ -2240,9 +2272,11 @@
       <c r="H44" s="13"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" ht="16">
+      <c r="K44" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="23" t="s">
@@ -2256,10 +2290,14 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" ht="16">
+      <c r="J45" s="48">
+        <v>0.125</v>
+      </c>
+      <c r="K45" s="50">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="23" t="s">
@@ -2272,11 +2310,13 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:11" ht="16">
+    <row r="47" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="23" t="s">
@@ -2291,9 +2331,11 @@
       <c r="H47" s="13"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" ht="16">
+      <c r="K47" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="23" t="s">
@@ -2308,9 +2350,11 @@
       <c r="H48" s="13"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="1:11" ht="16">
+      <c r="K48" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="23" t="s">
@@ -2325,9 +2369,11 @@
       <c r="H49" s="13"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="1:11" ht="16">
+      <c r="K49" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="23" t="s">
@@ -2342,9 +2388,11 @@
       <c r="H50" s="13"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="1:11" ht="16">
+      <c r="K50" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="23" t="s">
@@ -2356,8 +2404,12 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="9"/>
+      <c r="H51" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" s="49">
+        <v>0.25</v>
+      </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
@@ -2392,10 +2444,12 @@
       <c r="G53" s="47"/>
       <c r="H53" s="13"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="J53" s="48">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" s="45" customFormat="1" ht="68" customHeight="1">
+    <row r="54" spans="1:11" s="45" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="43" t="s">
@@ -2414,9 +2468,9 @@
       <c r="H54" s="13"/>
       <c r="I54" s="44"/>
       <c r="J54" s="44"/>
-      <c r="K54" s="44"/>
-    </row>
-    <row r="55" spans="1:11" s="45" customFormat="1" ht="16">
+      <c r="K54" s="51"/>
+    </row>
+    <row r="55" spans="1:11" s="45" customFormat="1">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="43" t="s">
@@ -2458,7 +2512,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="1:11" ht="34" customHeight="1">
+    <row r="57" spans="1:11" ht="33.950000000000003" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="23" t="s">
@@ -2495,14 +2549,20 @@
     <row r="59" spans="1:11">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="16"/>
+      <c r="C59" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="J59" s="48">
+        <v>0.125</v>
+      </c>
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11">
@@ -2544,7 +2604,7 @@
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:11" ht="16">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>5</v>
       </c>
@@ -2565,7 +2625,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:11" ht="16">
+    <row r="64" spans="1:11">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
@@ -2582,7 +2642,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="1:11" ht="16">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>5</v>
       </c>
@@ -2605,7 +2665,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="1:11" ht="16">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>5</v>
       </c>
@@ -2626,7 +2686,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="1:11" ht="16">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>5</v>
       </c>
@@ -2664,7 +2724,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="1:11" ht="16">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>5</v>
       </c>
@@ -2687,7 +2747,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="1:11" ht="16">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>5</v>
       </c>
@@ -2713,15 +2773,15 @@
     <row r="73" spans="1:11">
       <c r="I73" s="28">
         <f t="shared" ref="I73:K73" si="0">SUM(I2:I71)</f>
-        <v>1.2916666666666665</v>
+        <v>2.1041666666666665</v>
       </c>
       <c r="J73" s="28">
         <f t="shared" si="0"/>
-        <v>0.52430555555555558</v>
+        <v>1.1909722222222223</v>
       </c>
       <c r="K73" s="28">
         <f t="shared" si="0"/>
-        <v>1.5416666666666667</v>
+        <v>2.125</v>
       </c>
     </row>
   </sheetData>
@@ -2747,15 +2807,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD38B4BA879657459FE8C7022D55B717" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="d5c0f8514766e5ee81dc36ef583fe1d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83" xmlns:ns4="924d9142-22e9-433f-95fb-5e56abb45a2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fda3cd559eb82edd80343133af36ddc" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2995,6 +3046,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4B68BC-BE8F-4A5B-B7EC-622C230C2320}">
   <ds:schemaRefs>
@@ -3014,14 +3074,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EBF2B6D-0027-4C97-A9D7-4F49CDD76F62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3039,4 +3091,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
+++ b/Documents/2-UsersStories/Propre/BacklogExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web2.0\Documents\2-UsersStories\Propre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E13047-3CB8-42EB-9489-2CEA98B049FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7714D9CB-ABE4-4358-BB02-49BFFEB7B540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6BE69B5F-2B83-4C7C-919C-A491774D0366}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="137">
   <si>
     <t>Préparation</t>
   </si>
@@ -356,82 +356,6 @@
   </si>
   <si>
     <t>* Affichage d'un formulaire permettant à la dame de la garderie d'entrée les valeurs souhaitées pour ajouter une entrée/sortie dans le tableau garderie.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Récupérer les données introduites par l'utilisateur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vérifier que les données introduites sont recevables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Comparer avec la base de donnée via l'API (fonction login)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Token de connection</t>
-    </r>
   </si>
   <si>
     <t>En tant que dame de la garderie,pour plus de facilité je souhaite pouvoir sélectionner un élève particulier dans un menu déroulant lorsque je dois ajouter une arrivée ou un départ à la garderie.</t>
@@ -704,6 +628,33 @@
   </si>
   <si>
     <t>CSS</t>
+  </si>
+  <si>
+    <t>Placeholder dans l'API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Récupérer les données introduites par l'utilisateur
+* Vérifier que les données introduites sont recevables
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Comparer avec la base de donnée via l'API (fonction login)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* Token de connection</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -766,11 +717,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,12 +754,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B084"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -973,50 +917,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,7 +1283,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomLeft" activeCell="I106" sqref="I106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1662,16 +1609,16 @@
       <c r="E15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="52" t="s">
         <v>89</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="30">
-        <v>0.20833333333333334</v>
+      <c r="J15" s="24">
+        <v>0.25</v>
       </c>
       <c r="K15" s="10"/>
     </row>
@@ -1691,7 +1638,7 @@
       <c r="E16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="37" t="s">
         <v>92</v>
       </c>
       <c r="G16" s="7"/>
@@ -1731,7 +1678,7 @@
       <c r="E18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="37" t="s">
         <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -1762,10 +1709,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>51</v>
@@ -1773,7 +1720,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="39">
+      <c r="K19" s="38">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1788,16 +1735,16 @@
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>83</v>
@@ -1815,22 +1762,22 @@
         <v>100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>84</v>
@@ -1841,21 +1788,21 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" s="42" customFormat="1" ht="189" customHeight="1">
+    <row r="22" spans="1:11" s="41" customFormat="1" ht="189" customHeight="1">
       <c r="A22" s="17">
         <v>100</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>68</v>
@@ -1864,11 +1811,11 @@
         <v>69</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="40">
+      <c r="I22" s="39">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="40">
+      <c r="J22" s="40"/>
+      <c r="K22" s="39">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1890,7 +1837,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
@@ -1902,7 +1849,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>46</v>
@@ -1919,7 +1866,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
@@ -1928,13 +1875,13 @@
         <v>44</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H25" s="31" t="s">
         <v>66</v>
@@ -1950,7 +1897,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>2</v>
@@ -1959,13 +1906,13 @@
         <v>47</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="9"/>
@@ -2005,7 +1952,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>52</v>
@@ -2014,13 +1961,13 @@
         <v>53</v>
       </c>
       <c r="E29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="9"/>
@@ -2230,11 +2177,11 @@
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
-      <c r="I42" s="50">
+      <c r="I42" s="46">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="49">
+      <c r="K42" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2253,7 +2200,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="49">
+      <c r="K43" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2272,7 +2219,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="49">
+      <c r="K44" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2290,10 +2237,8 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="48">
-        <v>0.125</v>
-      </c>
-      <c r="K45" s="50">
+      <c r="J45" s="49"/>
+      <c r="K45" s="46">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -2310,7 +2255,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
-      <c r="I46" s="49">
+      <c r="I46" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J46" s="9"/>
@@ -2331,7 +2276,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="49">
+      <c r="K47" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2350,7 +2295,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="49">
+      <c r="K48" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2369,7 +2314,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="49">
+      <c r="K49" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2388,7 +2333,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="49">
+      <c r="K50" s="45">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -2405,9 +2350,9 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
       <c r="H51" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I51" s="49">
+        <v>133</v>
+      </c>
+      <c r="I51" s="45">
         <v>0.25</v>
       </c>
       <c r="J51" s="9"/>
@@ -2438,21 +2383,21 @@
       <c r="E53" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="47"/>
+      <c r="F53" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="48"/>
       <c r="H53" s="13"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="48">
-        <v>0.41666666666666669</v>
+      <c r="J53" s="45">
+        <v>0.83333333333333337</v>
       </c>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="1:11" s="45" customFormat="1" ht="68.099999999999994" customHeight="1">
+    <row r="54" spans="1:11" s="44" customFormat="1" ht="68.099999999999994" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="16" t="s">
@@ -2461,35 +2406,41 @@
       <c r="E54" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" s="47"/>
+      <c r="F54" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="48"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="51"/>
-    </row>
-    <row r="55" spans="1:11" s="45" customFormat="1">
+      <c r="I54" s="51">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J54" s="43"/>
+      <c r="K54" s="51">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="44" customFormat="1">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D55" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E55" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="47"/>
+      <c r="G55" s="48"/>
       <c r="H55" s="13"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
+      <c r="I55" s="50">
+        <v>0.125</v>
+      </c>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
     </row>
     <row r="56" spans="1:11" ht="35.25" customHeight="1">
       <c r="A56" s="4"/>
@@ -2501,12 +2452,12 @@
         <v>80</v>
       </c>
       <c r="E56" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" s="47"/>
+      <c r="G56" s="48"/>
       <c r="H56" s="13"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2522,16 +2473,20 @@
         <v>80</v>
       </c>
       <c r="E57" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="F57" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" s="47"/>
-      <c r="H57" s="13"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="46">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="4"/>
@@ -2553,15 +2508,15 @@
         <v>65</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="48">
-        <v>0.125</v>
+      <c r="J59" s="46">
+        <v>0.20833333333333334</v>
       </c>
       <c r="K59" s="9"/>
     </row>
@@ -2773,15 +2728,15 @@
     <row r="73" spans="1:11">
       <c r="I73" s="28">
         <f t="shared" ref="I73:K73" si="0">SUM(I2:I71)</f>
-        <v>2.1041666666666665</v>
+        <v>2.3125</v>
       </c>
       <c r="J73" s="28">
         <f t="shared" si="0"/>
-        <v>1.1909722222222223</v>
+        <v>1.6076388888888888</v>
       </c>
       <c r="K73" s="28">
         <f t="shared" si="0"/>
-        <v>2.125</v>
+        <v>2.291666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2807,6 +2762,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD38B4BA879657459FE8C7022D55B717" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="d5c0f8514766e5ee81dc36ef583fe1d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="b91bfc96-29e1-4fce-b1c9-d4ca10ce5a83" xmlns:ns4="924d9142-22e9-433f-95fb-5e56abb45a2b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fda3cd559eb82edd80343133af36ddc" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3046,15 +3010,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E4B68BC-BE8F-4A5B-B7EC-622C230C2320}">
   <ds:schemaRefs>
@@ -3074,6 +3029,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EBF2B6D-0027-4C97-A9D7-4F49CDD76F62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3091,12 +3054,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC947B79-57F2-4EAF-91AB-5A8BD2F86300}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>